--- a/11_util/totalcmd python/02_양수시험/YanSoo_Spec.xlsx
+++ b/11_util/totalcmd python/02_양수시험/YanSoo_Spec.xlsx
@@ -1,25 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\09_hardRain\09_ihanseol - 2024\20_음용수 - 건양레미콘 2개공 - 관정개발 - 산수개발\04_양수시험\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\09_hardRain\10_ihanseol - 2025\21_생활용 - 보령시, 임권영님 생활용지하수, 3개공 연장허가- 산수개발(주)\04_양수시험\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D065E3A-9808-4082-B1DB-A9C1967B4B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B6A012-28DB-49A7-94B1-9BF2E1291DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{7A4E816D-45D9-496E-8D4D-938447092D62}"/>
+    <workbookView xWindow="6840" yWindow="435" windowWidth="31560" windowHeight="20430" xr2:uid="{7A4E816D-45D9-496E-8D4D-938447092D62}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="ref" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="StableTime" sheetId="3" r:id="rId2"/>
+    <sheet name="ref" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -117,7 +127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{B055000F-CF53-430B-8745-00CF53ED4F89}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{438E7449-B22E-4FC3-AAA5-069854B90151}">
       <text>
         <r>
           <rPr>
@@ -147,20 +157,11 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>케이싱심도</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> : 3</t>
+          <t>펌프심도</t>
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{732A6BB5-6C30-436D-B23D-AEC91AE8243D}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{56DDC4C9-AB8B-4242-AC30-350EA4B4497F}">
       <text>
         <r>
           <rPr>
@@ -190,20 +191,12 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>우물직경</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> : 4</t>
+          <t xml:space="preserve">토출경
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{811926FC-7282-4904-A021-7EBF5D5564C4}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{6C1E23FE-8902-494A-B22E-6099FF8C5277}">
       <text>
         <r>
           <rPr>
@@ -233,21 +226,12 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>관정심도</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> : 5
+          <t xml:space="preserve">양수능력
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{F05CBE63-E023-42BD-9C10-EB2EFC934D36}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{B055000F-CF53-430B-8745-00CF53ED4F89}">
       <text>
         <r>
           <rPr>
@@ -277,20 +261,20 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>양수량</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> : 6</t>
+          <t>케이싱심도</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> : 3</t>
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{EFB17F96-13A2-4969-9001-12155DE18641}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{732A6BB5-6C30-436D-B23D-AEC91AE8243D}">
       <text>
         <r>
           <rPr>
@@ -320,20 +304,20 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>자연수위</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> : 7</t>
+          <t>우물직경</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> : 4</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{087F7231-DF85-4244-883E-A2CFCAA09BA3}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{811926FC-7282-4904-A021-7EBF5D5564C4}">
       <text>
         <r>
           <rPr>
@@ -363,6 +347,136 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
+          <t>관정심도</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> : 5
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{F05CBE63-E023-42BD-9C10-EB2EFC934D36}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>minhwasoo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>양수량</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> : 6</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{EFB17F96-13A2-4969-9001-12155DE18641}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>minhwasoo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자연수위</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> : 7</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{087F7231-DF85-4244-883E-A2CFCAA09BA3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>minhwasoo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
           <t>안정수위</t>
         </r>
         <r>
@@ -373,6 +487,261 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve"> : 8</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>minhwasoo</author>
+  </authors>
+  <commentList>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{AC224844-B2A5-4CF4-A75B-2F7FC153086A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>minhwasoo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>안정수위</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>도달시간을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>설정하면
+이것은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자동으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>계산한다는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">의미
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자동</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>즉</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>랜덤으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>결정</t>
         </r>
       </text>
     </comment>
@@ -381,7 +750,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
   <si>
     <t>W-1</t>
   </si>
@@ -398,10 +767,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>natual</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>stable</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -414,10 +779,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>well_rad</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>address</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -437,17 +798,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>소규모수도시설 수원공 사후관리 연장허가 용역</t>
-  </si>
-  <si>
-    <t>충청남도 부여군 초촌면 산직리 233-1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>산직지구</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>조사자</t>
   </si>
   <si>
@@ -505,6 +855,127 @@
   </si>
   <si>
     <t>Company</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>stable_time</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>안정수위 도달시간</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>longterm_test_time</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>수중모터</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>bedrock</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>natural</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>well_diameter</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ph</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>다다건설(주)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>pump_simdo</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>tochul</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumping_capacity</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주)환일</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>yangsoo_time</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>양수시험시간</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>합)유앤아이</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>W-2</t>
+  </si>
+  <si>
+    <t>W-3</t>
+  </si>
+  <si>
+    <t>충청남도 보령시 웅천읍 평리 304-1번지</t>
+  </si>
+  <si>
+    <t>충청남도 보령시 웅천읍 평리 304-8번지</t>
+  </si>
+  <si>
+    <t>충청남도 보령시 웅천읍 평리 산23번지</t>
+  </si>
+  <si>
+    <t>옥마산층</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>평리 304-1번지</t>
+  </si>
+  <si>
+    <t>평리 304-8번지</t>
+  </si>
+  <si>
+    <t>평리 산23번지</t>
+  </si>
+  <si>
+    <t>생활용지하수 이용허가 유효기간의 연장을 위한 지하수영향조사</t>
+  </si>
+  <si>
+    <t>생활용지하수 이용허가 유효기간의 연장을 위한 지하수영향조사</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -524,7 +995,7 @@
     <numFmt numFmtId="181" formatCode="#,##0.000_);[Red]\(#,##0.000\)"/>
     <numFmt numFmtId="182" formatCode="#,##0;&quot;-&quot;#,##0"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -630,6 +1101,28 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -657,7 +1150,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -739,8 +1232,67 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -788,12 +1340,15 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+  </cellStyleXfs>
+  <cellXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -808,19 +1363,10 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="24">
@@ -832,8 +1378,38 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="27">
     <cellStyle name="$" xfId="2" xr:uid="{039EF926-2D79-4287-984F-F219B0B268D2}"/>
     <cellStyle name="$_db진흥" xfId="5" xr:uid="{E662F74D-8871-4960-8BE3-82FC365DE219}"/>
     <cellStyle name="$_SE40" xfId="6" xr:uid="{6BCE639C-D9A3-485B-9568-372B5FDCC59B}"/>
@@ -845,7 +1421,9 @@
     <cellStyle name="Header2" xfId="16" xr:uid="{A1D1E844-2E69-4560-8EF0-5AA0EB3E6136}"/>
     <cellStyle name="백분율 2" xfId="23" xr:uid="{34E387D3-1302-4D0D-ACC4-0A1D5B8C524C}"/>
     <cellStyle name="쉼표 [0] 2" xfId="21" xr:uid="{1E2F307F-03C1-4DBB-8477-537207966664}"/>
+    <cellStyle name="쉼표 [0] 2 2" xfId="26" xr:uid="{9C98B891-4488-41DC-B82E-C721DFE1D727}"/>
     <cellStyle name="쉼표 2" xfId="18" xr:uid="{23B2615C-B39E-4A46-B5A2-28CC28CABC7D}"/>
+    <cellStyle name="쉼표 2 2" xfId="25" xr:uid="{F4D62024-2AAE-46D8-8BF3-A1B806BD49F4}"/>
     <cellStyle name="열어본 하이퍼링크" xfId="7" xr:uid="{2FF013C6-8046-4D76-BB36-988F6EEC443F}"/>
     <cellStyle name="원" xfId="8" xr:uid="{B284B404-8DBB-499E-B012-848DB9B239E2}"/>
     <cellStyle name="원_경기도지하수관리계획_1.28_경기본부의견적용" xfId="9" xr:uid="{C38C2859-650B-4D36-B914-D063269B2421}"/>
@@ -860,23 +1438,102 @@
     <cellStyle name="표준 2 3" xfId="22" xr:uid="{2C059BE8-8DE9-440B-871D-02E04FA57DC8}"/>
     <cellStyle name="표준 3" xfId="1" xr:uid="{45FF3674-0159-4243-B7B4-B71CAAF105AC}"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="33">
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -937,7 +1594,28 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -950,6 +1628,431 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
       </border>
     </dxf>
     <dxf>
@@ -966,211 +2069,10 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border>
@@ -1181,7 +2083,7 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1190,6 +2092,12 @@
         </right>
         <top/>
         <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
   </dxfs>
@@ -1205,41 +2113,110 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>675342</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>208827</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AC9FBE6-414B-C0D6-F97B-352499582831}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="752475" y="295275"/>
+          <a:ext cx="7466667" cy="5780952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00D75863-392D-47F4-816F-9DED009E88A2}" name="표1" displayName="표1" ref="A1:L31" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15">
-  <autoFilter ref="A1:L31" xr:uid="{00D75863-392D-47F4-816F-9DED009E88A2}"/>
-  <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{6966E024-5B7D-4BFD-902D-F5A2CC286734}" name="gong" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{B4FD8B7F-6070-4FF0-80D6-327B227030C9}" name="address" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{0DF67EF2-B0FF-4B62-A2C7-C83B41E6C7DE}" name="hp" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{924F5A5E-290B-4035-8CB0-10BC292CCB3B}" name="casing" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{A6E65C5A-D6A6-4B51-9839-269651B775D6}" name="well_rad" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{BE4E2369-8788-4538-941E-216CB9EC053A}" name="simdo" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{A888447B-BA76-4C9D-AC2F-A78B600CB6A6}" name="q" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{96B661C4-81A3-4F22-9B84-20AE22000FB5}" name="natual" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{792CF3E8-6671-451C-875B-4B08C7F6A2BF}" name="stable" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{2B9B97F1-2168-4CD5-8A91-CFD5B8FC2000}" name="Project Name" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{61C4B4A4-570E-4274-9B92-E7AA90036368}" name="Jigu Name" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{B0F7E805-AA0B-497F-97AA-BF9F53B3C965}" name="Company" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00D75863-392D-47F4-816F-9DED009E88A2}" name="표1" displayName="표1" ref="A1:T29" totalsRowShown="0" headerRowDxfId="32" dataDxfId="30" headerRowBorderDxfId="31" tableBorderDxfId="29" totalsRowBorderDxfId="28">
+  <autoFilter ref="A1:T29" xr:uid="{00D75863-392D-47F4-816F-9DED009E88A2}"/>
+  <tableColumns count="20">
+    <tableColumn id="1" xr3:uid="{6966E024-5B7D-4BFD-902D-F5A2CC286734}" name="gong" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{B4FD8B7F-6070-4FF0-80D6-327B227030C9}" name="address" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{0DF67EF2-B0FF-4B62-A2C7-C83B41E6C7DE}" name="hp" dataDxfId="25"/>
+    <tableColumn id="18" xr3:uid="{E9E425AB-58C3-42C7-A1AA-18A49E40D410}" name="pump_simdo" dataDxfId="24"/>
+    <tableColumn id="19" xr3:uid="{25853BC7-AA92-43CF-92BB-4C1EB59D3445}" name="tochul" dataDxfId="23"/>
+    <tableColumn id="17" xr3:uid="{B8A7B795-4FAC-4E8C-A6DA-C0C16CDBF939}" name="pumping_capacity" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{924F5A5E-290B-4035-8CB0-10BC292CCB3B}" name="casing" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{A6E65C5A-D6A6-4B51-9839-269651B775D6}" name="well_diameter" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{BE4E2369-8788-4538-941E-216CB9EC053A}" name="simdo" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{A888447B-BA76-4C9D-AC2F-A78B600CB6A6}" name="q" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{96B661C4-81A3-4F22-9B84-20AE22000FB5}" name="natural" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{792CF3E8-6671-451C-875B-4B08C7F6A2BF}" name="stable" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{2B9B97F1-2168-4CD5-8A91-CFD5B8FC2000}" name="Project Name" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{61C4B4A4-570E-4274-9B92-E7AA90036368}" name="Jigu Name" dataDxfId="14"/>
+    <tableColumn id="12" xr3:uid="{B0F7E805-AA0B-497F-97AA-BF9F53B3C965}" name="Company" dataDxfId="13"/>
+    <tableColumn id="13" xr3:uid="{A26A3D45-DB5B-4A07-B011-7CCAD006DAAE}" name="stable_time" dataDxfId="12"/>
+    <tableColumn id="14" xr3:uid="{A712B0EE-D79B-4070-A46A-ED247FD69C4F}" name="longterm_test_time" dataDxfId="11"/>
+    <tableColumn id="15" xr3:uid="{3CD6EF40-B05B-4C81-9E87-C143C135F695}" name="bedrock" dataDxfId="10"/>
+    <tableColumn id="16" xr3:uid="{87BF1DD3-1D67-490E-BE05-E27BB394B7DD}" name="ph" dataDxfId="9"/>
+    <tableColumn id="20" xr3:uid="{BDF25816-903F-4E48-8C52-DC45AF68ADAE}" name="yangsoo_time" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BD8657F5-9C43-47F4-B598-A090AF91B3A2}" name="tableCorp" displayName="tableCorp" ref="D1:D17" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2" headerRowCellStyle="표준 2" dataCellStyle="표준 2">
-  <autoFilter ref="D1:D17" xr:uid="{BD8657F5-9C43-47F4-B598-A090AF91B3A2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BD8657F5-9C43-47F4-B598-A090AF91B3A2}" name="tableCorp" displayName="tableCorp" ref="D1:F28" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" headerRowCellStyle="표준 2" dataCellStyle="표준 2">
+  <autoFilter ref="D1:F28" xr:uid="{BD8657F5-9C43-47F4-B598-A090AF91B3A2}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{B76B8A1D-450B-4E5D-86C5-2DC40D113BFB}" name="조사자" dataDxfId="5" dataCellStyle="표준 2"/>
+    <tableColumn id="2" xr3:uid="{E50CFF5F-CC3C-46D1-A33E-D131F0C282A4}" name="안정수위 도달시간" dataDxfId="4" dataCellStyle="표준 2"/>
+    <tableColumn id="3" xr3:uid="{21FB5381-50AB-4457-BB50-71397382ACB4}" name="양수시험시간" dataDxfId="3" dataCellStyle="표준 2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BE293AC2-8E05-407B-95BD-148236808D18}" name="표8" displayName="표8" ref="C1:C11" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1" headerRowCellStyle="표준 2" dataCellStyle="표준 2">
+  <autoFilter ref="C1:C11" xr:uid="{BE293AC2-8E05-407B-95BD-148236808D18}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{B76B8A1D-450B-4E5D-86C5-2DC40D113BFB}" name="조사자" dataDxfId="1" dataCellStyle="표준 2"/>
+    <tableColumn id="1" xr3:uid="{D0C0DE7A-B5E2-4A78-89A1-D914B8054472}" name="수중모터" dataDxfId="0" dataCellStyle="표준 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1277,7 +2254,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1383,7 +2360,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1525,7 +2502,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1534,135 +2511,289 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9CA69D7-2D82-4ECE-B16F-3C0D42475432}">
   <sheetPr>
+    <tabColor rgb="FF00B050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="5" width="10.25" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="10.875" customWidth="1"/>
-    <col min="8" max="8" width="12.25" customWidth="1"/>
-    <col min="9" max="9" width="15.625" customWidth="1"/>
-    <col min="10" max="10" width="47.375" customWidth="1"/>
-    <col min="11" max="11" width="26.625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="28.875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="39.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.25" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.25" style="2" customWidth="1"/>
+    <col min="12" max="12" width="15.625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="47.375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="26.625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="28.875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="23.125" customWidth="1"/>
+    <col min="17" max="17" width="24" customWidth="1"/>
+    <col min="18" max="18" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="M1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="21.95" customHeight="1">
+      <c r="A2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="17">
+        <v>7.5</v>
+      </c>
+      <c r="D2" s="17">
+        <v>70</v>
+      </c>
+      <c r="E2" s="17">
+        <v>50</v>
+      </c>
+      <c r="F2" s="1">
+        <v>550</v>
+      </c>
+      <c r="G2" s="1">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1">
+        <v>200</v>
+      </c>
+      <c r="I2" s="1">
+        <v>100</v>
+      </c>
+      <c r="J2" s="1">
+        <v>500</v>
+      </c>
+      <c r="K2" s="17">
+        <v>7.47</v>
+      </c>
+      <c r="L2" s="17">
+        <v>53.24</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="1">
+        <v>540</v>
+      </c>
+      <c r="Q2" s="19">
+        <v>45917.454861111109</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S2" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="T2" s="14">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="21.95" customHeight="1">
+      <c r="A3" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="17">
+        <v>7.5</v>
+      </c>
+      <c r="D3" s="17">
+        <v>70</v>
+      </c>
+      <c r="E3" s="17">
+        <v>50</v>
+      </c>
+      <c r="F3" s="1">
+        <v>450</v>
+      </c>
+      <c r="G3" s="1">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1">
+        <v>200</v>
+      </c>
+      <c r="I3" s="1">
+        <v>100</v>
+      </c>
+      <c r="J3" s="1">
+        <v>400</v>
+      </c>
+      <c r="K3" s="17">
+        <v>8.24</v>
+      </c>
+      <c r="L3" s="17">
+        <v>43.47</v>
+      </c>
+      <c r="M3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="1">
+        <v>540</v>
+      </c>
+      <c r="Q3" s="19">
+        <v>45917.454861111109</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S3" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="T3" s="14">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="21.95" customHeight="1">
+      <c r="A4" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="17">
         <v>5</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="7" t="s">
+      <c r="D4" s="17">
+        <v>90</v>
+      </c>
+      <c r="E4" s="17">
+        <v>40</v>
+      </c>
+      <c r="F4" s="1">
+        <v>170</v>
+      </c>
+      <c r="G4" s="1">
+        <v>15</v>
+      </c>
+      <c r="H4" s="1">
+        <v>200</v>
+      </c>
+      <c r="I4" s="1">
+        <v>110</v>
+      </c>
+      <c r="J4" s="1">
+        <v>150</v>
+      </c>
+      <c r="K4" s="17">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="L4" s="17">
+        <v>45.95</v>
+      </c>
+      <c r="M4" t="s">
+        <v>55</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="21.95" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1">
-        <v>250</v>
-      </c>
-      <c r="F2" s="1">
-        <v>150</v>
-      </c>
-      <c r="G2" s="1">
-        <v>100</v>
-      </c>
-      <c r="H2" s="1">
-        <v>3.4</v>
-      </c>
-      <c r="I2" s="1">
-        <v>46.5</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="21.95" customHeight="1">
-      <c r="A3" s="1"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="1:12" ht="21.95" customHeight="1">
-      <c r="A4" s="1"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" ht="21.95" customHeight="1">
-      <c r="A5" s="1"/>
-      <c r="B5" s="5"/>
+      <c r="P4" s="1">
+        <v>540</v>
+      </c>
+      <c r="Q4" s="19">
+        <v>45917.454861111109</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S4" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="T4" s="14">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="21.95" customHeight="1">
+      <c r="A5" s="13"/>
+      <c r="B5" s="4"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1671,12 +2802,20 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" ht="21.95" customHeight="1">
-      <c r="A6" s="1"/>
-      <c r="B6" s="4"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="14"/>
+    </row>
+    <row r="6" spans="1:20" ht="21.95" customHeight="1">
+      <c r="A6" s="13"/>
+      <c r="B6" s="3"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1685,12 +2824,20 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" ht="21.95" customHeight="1">
-      <c r="A7" s="1"/>
-      <c r="B7" s="5"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="14"/>
+    </row>
+    <row r="7" spans="1:20" ht="21.95" customHeight="1">
+      <c r="A7" s="13"/>
+      <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1699,12 +2846,20 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" ht="21.95" customHeight="1">
-      <c r="A8" s="1"/>
-      <c r="B8" s="4"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="14"/>
+    </row>
+    <row r="8" spans="1:20" ht="21.95" customHeight="1">
+      <c r="A8" s="13"/>
+      <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1713,12 +2868,20 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" ht="21.95" customHeight="1">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="14"/>
+    </row>
+    <row r="9" spans="1:20" ht="21.95" customHeight="1">
+      <c r="A9" s="13"/>
+      <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1727,11 +2890,19 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="1:12" ht="21.95" customHeight="1">
-      <c r="A10" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="14"/>
+    </row>
+    <row r="10" spans="1:20" ht="21.95" customHeight="1">
+      <c r="A10" s="13"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1741,11 +2912,19 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="1:12" ht="21.95" customHeight="1">
-      <c r="A11" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="14"/>
+    </row>
+    <row r="11" spans="1:20" ht="21.95" customHeight="1">
+      <c r="A11" s="13"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1755,11 +2934,19 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-    </row>
-    <row r="12" spans="1:12" ht="21.95" customHeight="1">
-      <c r="A12" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="14"/>
+    </row>
+    <row r="12" spans="1:20" ht="21.95" customHeight="1">
+      <c r="A12" s="13"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1769,11 +2956,19 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-    </row>
-    <row r="13" spans="1:12" ht="21.95" customHeight="1">
-      <c r="A13" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="14"/>
+    </row>
+    <row r="13" spans="1:20" ht="21.95" customHeight="1">
+      <c r="A13" s="13"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1783,11 +2978,19 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="1:12" ht="21.95" customHeight="1">
-      <c r="A14" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="14"/>
+    </row>
+    <row r="14" spans="1:20" ht="21.95" customHeight="1">
+      <c r="A14" s="13"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1797,11 +3000,19 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="1:12" ht="21.95" customHeight="1">
-      <c r="A15" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="14"/>
+    </row>
+    <row r="15" spans="1:20" ht="21.95" customHeight="1">
+      <c r="A15" s="13"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1811,11 +3022,19 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="1:12" ht="21.95" customHeight="1">
-      <c r="A16" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="14"/>
+    </row>
+    <row r="16" spans="1:20" ht="21.95" customHeight="1">
+      <c r="A16" s="13"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1825,11 +3044,19 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="1:12" ht="21.95" customHeight="1">
-      <c r="A17" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="14"/>
+    </row>
+    <row r="17" spans="1:20" ht="21.95" customHeight="1">
+      <c r="A17" s="13"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1839,11 +3066,19 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="1:12" ht="21.95" customHeight="1">
-      <c r="A18" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="14"/>
+    </row>
+    <row r="18" spans="1:20" ht="21.95" customHeight="1">
+      <c r="A18" s="13"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1853,11 +3088,19 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="1:12" ht="21.95" customHeight="1">
-      <c r="A19" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="14"/>
+    </row>
+    <row r="19" spans="1:20" ht="21.95" customHeight="1">
+      <c r="A19" s="13"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1867,11 +3110,19 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="1:12" ht="21.95" customHeight="1">
-      <c r="A20" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="14"/>
+    </row>
+    <row r="20" spans="1:20" ht="21.95" customHeight="1">
+      <c r="A20" s="13"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1881,11 +3132,19 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-    </row>
-    <row r="21" spans="1:12" ht="21.95" customHeight="1">
-      <c r="A21" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="14"/>
+    </row>
+    <row r="21" spans="1:20" ht="21.95" customHeight="1">
+      <c r="A21" s="13"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1895,11 +3154,19 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-    </row>
-    <row r="22" spans="1:12" ht="21.95" customHeight="1">
-      <c r="A22" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="14"/>
+    </row>
+    <row r="22" spans="1:20" ht="21.95" customHeight="1">
+      <c r="A22" s="13"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1909,11 +3176,19 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-    </row>
-    <row r="23" spans="1:12" ht="21.95" customHeight="1">
-      <c r="A23" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="14"/>
+    </row>
+    <row r="23" spans="1:20" ht="21.95" customHeight="1">
+      <c r="A23" s="13"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1923,11 +3198,19 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-    </row>
-    <row r="24" spans="1:12" ht="21.95" customHeight="1">
-      <c r="A24" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="14"/>
+    </row>
+    <row r="24" spans="1:20" ht="21.95" customHeight="1">
+      <c r="A24" s="13"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1937,11 +3220,19 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-    </row>
-    <row r="25" spans="1:12" ht="21.95" customHeight="1">
-      <c r="A25" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="14"/>
+    </row>
+    <row r="25" spans="1:20" ht="21.95" customHeight="1">
+      <c r="A25" s="13"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1951,11 +3242,19 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-    </row>
-    <row r="26" spans="1:12" ht="21.95" customHeight="1">
-      <c r="A26" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="14"/>
+    </row>
+    <row r="26" spans="1:20" ht="21.95" customHeight="1">
+      <c r="A26" s="13"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1965,11 +3264,19 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-    </row>
-    <row r="27" spans="1:12" ht="21.95" customHeight="1">
-      <c r="A27" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="14"/>
+    </row>
+    <row r="27" spans="1:20" ht="21.95" customHeight="1">
+      <c r="A27" s="13"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1979,11 +3286,19 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-    </row>
-    <row r="28" spans="1:12" ht="21.95" customHeight="1">
-      <c r="A28" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="14"/>
+    </row>
+    <row r="28" spans="1:20" ht="21.95" customHeight="1">
+      <c r="A28" s="13"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1993,54 +3308,42 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-    </row>
-    <row r="29" spans="1:12" ht="21.95" customHeight="1">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-    </row>
-    <row r="30" spans="1:12" ht="21.95" customHeight="1">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-    </row>
-    <row r="31" spans="1:12" ht="21.95" customHeight="1">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-    </row>
-    <row r="32" spans="1:12" ht="21.95" customHeight="1"/>
-    <row r="33" ht="21.95" customHeight="1"/>
-    <row r="34" ht="21.95" customHeight="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="14"/>
+    </row>
+    <row r="29" spans="1:20" ht="21.95" customHeight="1">
+      <c r="A29" s="15"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="16"/>
+    </row>
+    <row r="30" spans="1:20" ht="21.95" customHeight="1"/>
+    <row r="31" spans="1:20" ht="21.95" customHeight="1"/>
+    <row r="32" spans="1:20" ht="21.95" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2051,12 +3354,36 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{03E0BB34-266E-495F-83FF-98FFAA1A60B9}">
+          <x14:formula1>
+            <xm:f>ref!$C$2:$C$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C4</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7340DEEF-1E31-4BEA-A0F8-A8F0BE07B758}">
           <x14:formula1>
             <xm:f>ref!$D$2:$D$17</xm:f>
           </x14:formula1>
-          <xm:sqref>L2:L31</xm:sqref>
+          <xm:sqref>O5:O29</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2A4D3C20-7ACD-4D32-A13C-14D617EDCC2F}">
+          <x14:formula1>
+            <xm:f>ref!$E$2:$E$28</xm:f>
+          </x14:formula1>
+          <xm:sqref>P2:P29</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{809D51D3-47C6-444D-BC37-3B6CD8D40C13}">
+          <x14:formula1>
+            <xm:f>ref!$D$2:$D$28</xm:f>
+          </x14:formula1>
+          <xm:sqref>O2:O4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0AC510E6-6CF0-43BD-B6F3-80DBD9056398}">
+          <x14:formula1>
+            <xm:f>ref!$F$2:$F$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>T2:T4</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2065,11 +3392,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{061C8039-FB46-406D-96AD-6834A45FCD63}">
-  <dimension ref="A1:D17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7660C6B-5FD5-4BD9-9EB7-DD7D874E2F5C}">
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="J41" sqref="J41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{061C8039-FB46-406D-96AD-6834A45FCD63}">
+  <dimension ref="A1:F28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2077,105 +3423,299 @@
     <col min="1" max="1" width="33.625" customWidth="1"/>
     <col min="2" max="2" width="27.25" customWidth="1"/>
     <col min="3" max="3" width="29.25" customWidth="1"/>
-    <col min="4" max="4" width="26.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="26.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.875" customWidth="1"/>
+    <col min="6" max="6" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="11" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:6" s="7" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0</v>
+      </c>
+      <c r="F2" s="8">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="C3" s="8">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="8">
+        <v>120</v>
+      </c>
+      <c r="F3" s="8">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="C4" s="8">
+        <v>3</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="8">
+        <v>140</v>
+      </c>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="C5" s="8">
+        <v>5</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="8">
+        <v>160</v>
+      </c>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="C6" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="8">
+        <v>180</v>
+      </c>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="C7" s="8">
         <v>10</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="D2" s="12" t="s">
+      <c r="D7" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="D3" s="12" t="s">
+      <c r="E7" s="8">
+        <v>240</v>
+      </c>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="C8" s="8">
+        <v>15</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="D4" s="12" t="s">
+      <c r="E8" s="8">
+        <v>300</v>
+      </c>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="C9" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="D5" s="12" t="s">
+      <c r="D9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="8">
+        <v>360</v>
+      </c>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="C10" s="8">
+        <v>25</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="D6" s="12" t="s">
+      <c r="E10" s="8">
+        <v>420</v>
+      </c>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="C11" s="8">
+        <v>30</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="D7" s="12" t="s">
+      <c r="E11" s="8">
+        <v>480</v>
+      </c>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="D12" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="D8" s="12" t="s">
+      <c r="E12" s="8">
+        <v>540</v>
+      </c>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="D13" s="8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="D9" s="12" t="s">
+      <c r="E13" s="8">
+        <v>600</v>
+      </c>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="D14" s="8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="D10" s="12" t="s">
+      <c r="E14" s="8">
+        <v>660</v>
+      </c>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="D15" s="9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="D11" s="12" t="s">
+      <c r="E15" s="8">
+        <v>720</v>
+      </c>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="D16" s="8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="D12" s="12" t="s">
+      <c r="E16" s="8">
+        <v>780</v>
+      </c>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="4:6">
+      <c r="D17" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="D13" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="D14" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="D15" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="D16" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4">
-      <c r="D17" s="12" t="s">
-        <v>33</v>
-      </c>
+      <c r="E17" s="8">
+        <v>840</v>
+      </c>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="4:6">
+      <c r="D18" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="8">
+        <v>900</v>
+      </c>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="4:6">
+      <c r="D19" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="8">
+        <v>960</v>
+      </c>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="4:6">
+      <c r="D20" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1020</v>
+      </c>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="4:6">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8">
+        <v>1080</v>
+      </c>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="4:6">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8">
+        <v>1140</v>
+      </c>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="4:6">
+      <c r="D23" s="8"/>
+      <c r="E23" s="8">
+        <v>1200</v>
+      </c>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="4:6">
+      <c r="D24" s="8"/>
+      <c r="E24" s="8">
+        <v>1260</v>
+      </c>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="4:6">
+      <c r="D25" s="8"/>
+      <c r="E25" s="8">
+        <v>1320</v>
+      </c>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="4:6">
+      <c r="D26" s="8"/>
+      <c r="E26" s="8">
+        <v>1380</v>
+      </c>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="4:6">
+      <c r="D27" s="8"/>
+      <c r="E27" s="8">
+        <v>1440</v>
+      </c>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="4:6">
+      <c r="D28" s="8"/>
+      <c r="E28" s="8">
+        <v>1500</v>
+      </c>
+      <c r="F28" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
+  <legacyDrawing r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>